--- a/213-contenu---intégration-de-la-grille-dévaluation-aggir/ig/all-profiles.xlsx
+++ b/213-contenu---intégration-de-la-grille-dévaluation-aggir/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-20T13:21:38+00:00</t>
+    <t>2025-02-21T13:24:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/213-contenu---intégration-de-la-grille-dévaluation-aggir/ig/all-profiles.xlsx
+++ b/213-contenu---intégration-de-la-grille-dévaluation-aggir/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T13:24:16+00:00</t>
+    <t>2025-02-21T15:07:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/213-contenu---intégration-de-la-grille-dévaluation-aggir/ig/all-profiles.xlsx
+++ b/213-contenu---intégration-de-la-grille-dévaluation-aggir/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T15:07:17+00:00</t>
+    <t>2025-02-24T12:14:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
